--- a/va_facility_data_2025-02-20/Palestine VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Palestine%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Palestine VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Palestine%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2cbd88224feb4ac59f7c9893a1cf766d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rf8fdfb01928443ceb4ba1a63a0282f00"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rdffe0c0446cc4772b336e1aa34ee4811"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd0ac1456e425443cb04e934cc1c18779"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc5b33ba0540649b3b4d6bc8a9b541a4c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra202c4e5e4f844379770d45a14ae5ea7"/>
   </x:sheets>
 </x:workbook>
 </file>
